--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-USER_UNITS_OF_MEASURE_02_invalid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-USER_UNITS_OF_MEASURE_02_invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CE4A6F-342B-564C-927E-180079D11B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9F142-B9EE-C241-96FF-ECA0DAAF0E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59840" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_NOTES" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="375">
   <si>
     <t>FIELD</t>
   </si>
@@ -1247,9 +1247,6 @@
   </si>
   <si>
     <t>A dummy unit of measure</t>
-  </si>
-  <si>
-    <t>BLOBS PER CHUNK (BPC)</t>
   </si>
   <si>
     <t>BPC</t>
@@ -3492,8 +3489,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3564,7 @@
         <v>356</v>
       </c>
       <c r="O1" s="95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P1" s="95" t="s">
         <v>357</v>
@@ -3588,7 +3585,7 @@
         <v>360</v>
       </c>
       <c r="V1" s="95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W1" s="95" t="s">
         <v>361</v>
@@ -3927,9 +3924,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
-        <v>366</v>
-      </c>
+      <c r="B15" s="33"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -3938,22 +3933,22 @@
     <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="80" showAutoFilter="1" topLeftCell="N1">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:W14" xr:uid="{F6AC64FF-C0F2-2142-96AD-7772E6B1C43E}"/>
+      <autoFilter ref="B1:W14" xr:uid="{731B44D6-EA84-E747-B475-3AD0643BA9AD}"/>
     </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" showAutoFilter="1">
       <selection activeCell="R17" sqref="R17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:W14" xr:uid="{9607062C-5611-5645-86E0-7E43118CD2DC}"/>
+      <autoFilter ref="A1:W14" xr:uid="{E69FEDF6-959E-9349-A901-E9F3B3F95699}"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showAutoFilter="1" topLeftCell="F1">
       <selection activeCell="L8" sqref="L8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:X1" xr:uid="{C01F6226-9FCC-6245-A173-78490CEAA060}"/>
+      <autoFilter ref="B1:X1" xr:uid="{E421398B-CB35-7E4C-8931-8F2627EE80A2}"/>
     </customSheetView>
     <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" showAutoFilter="1" topLeftCell="N1">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:W14" xr:uid="{F62D30A7-5B62-FA4B-A228-4975828C6791}"/>
+      <autoFilter ref="B1:W14" xr:uid="{10383176-D4B0-7747-B0B0-25EC054F7BCB}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
@@ -3973,7 +3968,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -3996,7 +3991,7 @@
         <v>338</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="79" t="s">
         <v>14</v>
@@ -4116,7 +4111,7 @@
         <v>335</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>339</v>
@@ -4147,10 +4142,10 @@
         <v>345</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>365</v>
@@ -4163,13 +4158,13 @@
         <v>359</v>
       </c>
       <c r="C11" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="E11" s="70" t="s">
         <v>373</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>374</v>
       </c>
       <c r="F11" s="70"/>
     </row>
@@ -26815,6 +26810,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe27245e9bb914202a9dc14def4cd737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" xmlns:ns3="bcd33c6e-30cb-4633-b8ec-d716de95c77b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8902f26a47aaca738f2017df961ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
@@ -27045,7 +27054,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -27054,21 +27063,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27087,27 +27099,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>